--- a/TestData/input.xlsx
+++ b/TestData/input.xlsx
@@ -12,12 +12,11 @@
     <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -47,6 +46,9 @@
   </si>
   <si>
     <t>actiTIME 2017.1</t>
+  </si>
+  <si>
+    <t>admin111</t>
   </si>
 </sst>
 </file>
@@ -451,7 +453,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +475,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
